--- a/reports/Rep_Level_Impacts_2025_Summary_V2.xlsx
+++ b/reports/Rep_Level_Impacts_2025_Summary_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AccountLists\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{410A41FF-B426-4FB7-8435-4C0FEEBBB006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F6FA2E-B964-4B4F-A824-B1D6E395D81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{CAC3D86C-369F-4A05-84AC-ABE32C5D97D7}"/>
+    <workbookView xWindow="-22428" yWindow="1164" windowWidth="21348" windowHeight="9900" xr2:uid="{45189BC8-F0C2-46BC-834E-6004E7071DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Rep_Level_Impacts_2025_Summary_" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
   <si>
     <t>Rep_Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Before_Accounts</t>
   </si>
   <si>
+    <t>Before_SF_Ex_BI</t>
+  </si>
+  <si>
     <t>Before_Rev_2024</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>Net_Account_Change</t>
   </si>
   <si>
+    <t>Account_Change_Pct</t>
+  </si>
+  <si>
     <t>Rev_Moved_In</t>
   </si>
   <si>
@@ -55,12 +61,12 @@
     <t>Net_Rev_Change</t>
   </si>
   <si>
+    <t>Revenue_Change_Pct</t>
+  </si>
+  <si>
     <t>After_Accounts</t>
   </si>
   <si>
-    <t>After_Rev_2024</t>
-  </si>
-  <si>
     <t>After_Rev_2025</t>
   </si>
   <si>
@@ -71,9 +77,6 @@
   </si>
   <si>
     <t>SF_Ex_BI_Accounts</t>
-  </si>
-  <si>
-    <t>SF_Ex_BI_Rev</t>
   </si>
   <si>
     <t>Zero_Rev_Accounts</t>
@@ -1173,19 +1176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E69281-78FA-4B2B-9432-5AB429BC466B}">
-  <dimension ref="A1:T74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FEB264-AB09-479E-BD25-1400D35766AB}">
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,88 +1244,94 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>151</v>
       </c>
       <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
         <v>795662.5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>512684.85</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>38</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-38</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>-25.17</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>6746</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-6746</v>
       </c>
-      <c r="L2">
+      <c r="N2">
+        <v>-1.32</v>
+      </c>
+      <c r="O2">
         <v>113</v>
       </c>
-      <c r="M2">
-        <v>770355.8</v>
-      </c>
-      <c r="N2">
+      <c r="P2">
         <v>505938.85</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>21</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>708.4</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>36</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="T2">
         <v>74</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>23659</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>121755.02</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -1344,20 +1348,20 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>23659</v>
-      </c>
-      <c r="N3">
+      <c r="P3">
         <v>121755.02</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
@@ -1365,54 +1369,57 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>31</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>843001.29</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>757542.45</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>31</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-31</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>-100</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>757542.45</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>-757542.45</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1432,26 +1439,29 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>505662.63</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>267631.84999999998</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -1468,20 +1478,20 @@
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>505662.63</v>
-      </c>
-      <c r="N5">
+      <c r="P5">
         <v>267631.84999999998</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1494,180 +1504,189 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>573</v>
       </c>
       <c r="D6">
+        <v>282</v>
+      </c>
+      <c r="E6">
         <v>541609.43000000005</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>660637.25</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>151</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-149</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <v>-26</v>
+      </c>
+      <c r="K6">
         <v>669968.78</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>22681</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>647287.78</v>
       </c>
-      <c r="L6">
+      <c r="N6">
+        <v>97.98</v>
+      </c>
+      <c r="O6">
         <v>424</v>
       </c>
-      <c r="M6">
-        <v>441872.24</v>
-      </c>
-      <c r="N6">
+      <c r="P6">
         <v>1307925.03</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>288</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>4115.8999999999996</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>282</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="T6">
         <v>335</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>279</v>
       </c>
       <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
         <v>4425393.3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4079564.13</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>46</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-46</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>-16.489999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>15119.9</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>-15119.9</v>
       </c>
-      <c r="L7">
+      <c r="N7">
+        <v>-0.37</v>
+      </c>
+      <c r="O7">
         <v>233</v>
       </c>
-      <c r="M7">
-        <v>4342348.88</v>
-      </c>
-      <c r="N7">
+      <c r="P7">
         <v>4064444.23</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>22</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>973</v>
       </c>
       <c r="D8">
+        <v>145</v>
+      </c>
+      <c r="E8">
         <v>2360441.7999999998</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2295015.7200000002</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>390</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>969</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-579</v>
       </c>
-      <c r="I8">
+      <c r="J8">
+        <v>-59.51</v>
+      </c>
+      <c r="K8">
         <v>2220285.4700000002</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>2257618.7200000002</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>-37333.25</v>
       </c>
-      <c r="L8">
+      <c r="N8">
+        <v>-1.63</v>
+      </c>
+      <c r="O8">
         <v>394</v>
       </c>
-      <c r="M8">
-        <v>1831731.01</v>
-      </c>
-      <c r="N8">
+      <c r="P8">
         <v>2257682.4700000002</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
         <v>0</v>
       </c>
@@ -1675,61 +1694,64 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>92</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1391005.9</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>240890.58</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>0</v>
+        <v>-11.11</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>8</v>
       </c>
-      <c r="M9">
-        <v>1391005.9</v>
-      </c>
-      <c r="N9">
+      <c r="P9">
         <v>240890.58</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -1737,61 +1759,64 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>5</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>156</v>
       </c>
       <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <v>2652431.2799999998</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2540597.42</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>16</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-16</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>-10.26</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>13136</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>-13136</v>
       </c>
-      <c r="L10">
+      <c r="N10">
+        <v>-0.52</v>
+      </c>
+      <c r="O10">
         <v>140</v>
       </c>
-      <c r="M10">
-        <v>2599673.2799999998</v>
-      </c>
-      <c r="N10">
+      <c r="P10">
         <v>2527461.42</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
         <v>0</v>
       </c>
@@ -1799,31 +1824,34 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>6</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>24</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>11120642.92</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>8828535.4100000001</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -1840,20 +1868,20 @@
         <v>0</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>24</v>
       </c>
-      <c r="M11">
-        <v>11120642.92</v>
-      </c>
-      <c r="N11">
+      <c r="P11">
         <v>8828535.4100000001</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
         <v>0</v>
       </c>
@@ -1861,123 +1889,129 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>2</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>929</v>
       </c>
       <c r="D12">
+        <v>37</v>
+      </c>
+      <c r="E12">
         <v>2961007.03</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2549735.2400000002</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>170</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>744</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-574</v>
       </c>
-      <c r="I12">
+      <c r="J12">
+        <v>-61.79</v>
+      </c>
+      <c r="K12">
         <v>915455.37</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>1442116.82</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>-526661.44999999995</v>
       </c>
-      <c r="L12">
+      <c r="N12">
+        <v>-20.66</v>
+      </c>
+      <c r="O12">
         <v>355</v>
       </c>
-      <c r="M12">
-        <v>1406276.6</v>
-      </c>
-      <c r="N12">
+      <c r="P12">
         <v>2023073.79</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>3</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>-2233</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>58</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>86</v>
       </c>
       <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
         <v>432386.7</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>477695.22</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>22</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-22</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>-25.58</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>1224.81</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>-1224.81</v>
       </c>
-      <c r="L13">
+      <c r="N13">
+        <v>-0.26</v>
+      </c>
+      <c r="O13">
         <v>64</v>
       </c>
-      <c r="M13">
-        <v>415407.2</v>
-      </c>
-      <c r="N13">
+      <c r="P13">
         <v>476470.41</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
@@ -1985,61 +2019,64 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>28</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>191</v>
       </c>
       <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
         <v>1421694.73</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1617986.54</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>70</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-70</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>-36.65</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>28271.98</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>-28271.98</v>
       </c>
-      <c r="L14">
+      <c r="N14">
+        <v>-1.75</v>
+      </c>
+      <c r="O14">
         <v>121</v>
       </c>
-      <c r="M14">
-        <v>1304987.3</v>
-      </c>
-      <c r="N14">
+      <c r="P14">
         <v>1589714.56</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
       <c r="Q14">
         <v>0</v>
       </c>
@@ -2047,204 +2084,216 @@
         <v>0</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>9</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>181</v>
       </c>
       <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
         <v>2007370.07</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2140844.62</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>37</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-37</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
+        <v>-20.440000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>18981.84</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>-18981.84</v>
       </c>
-      <c r="L15">
+      <c r="N15">
+        <v>-0.89</v>
+      </c>
+      <c r="O15">
         <v>144</v>
       </c>
-      <c r="M15">
-        <v>1926414.44</v>
-      </c>
-      <c r="N15">
+      <c r="P15">
         <v>2121862.7799999998</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>2</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>3193.5</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>7</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>136</v>
       </c>
       <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
         <v>228969.92</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>166075.99</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>30</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-30</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
+        <v>-22.06</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>4864.55</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>-4864.55</v>
       </c>
-      <c r="L16">
+      <c r="N16">
+        <v>-2.93</v>
+      </c>
+      <c r="O16">
         <v>106</v>
       </c>
-      <c r="M16">
-        <v>201931.32</v>
-      </c>
-      <c r="N16">
+      <c r="P16">
         <v>161211.44</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>67</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>1657.5</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>64</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="T16">
         <v>78</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>937</v>
       </c>
       <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
         <v>4457476.6500000004</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>4275853.54</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>527</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-527</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
+        <v>-56.24</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>142131.13</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>-142131.13</v>
       </c>
-      <c r="L17">
+      <c r="N17">
+        <v>-3.32</v>
+      </c>
+      <c r="O17">
         <v>410</v>
       </c>
-      <c r="M17">
-        <v>3833759.03</v>
-      </c>
-      <c r="N17">
+      <c r="P17">
         <v>4133722.41</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>6</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>7675.01</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>66</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -2259,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>7</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-7</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2300,56 +2349,59 @@
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>131</v>
       </c>
       <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>1310464.53</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1238417.29</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-30</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
+        <v>-22.9</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>11024.8</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>-11024.8</v>
       </c>
-      <c r="L19">
+      <c r="N19">
+        <v>-0.89</v>
+      </c>
+      <c r="O19">
         <v>101</v>
       </c>
-      <c r="M19">
-        <v>1235782.25</v>
-      </c>
-      <c r="N19">
+      <c r="P19">
         <v>1227392.49</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
         <v>0</v>
       </c>
@@ -2357,81 +2409,87 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>14</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>3609</v>
       </c>
       <c r="D20">
+        <v>1876</v>
+      </c>
+      <c r="E20">
         <v>69873.41</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>449181.01</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>317</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3315</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-2998</v>
       </c>
-      <c r="I20">
+      <c r="J20">
+        <v>-83.07</v>
+      </c>
+      <c r="K20">
         <v>274066</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>74772.87</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>199293.13</v>
       </c>
-      <c r="L20">
+      <c r="N20">
+        <v>44.37</v>
+      </c>
+      <c r="O20">
         <v>611</v>
       </c>
-      <c r="M20">
-        <v>3397995.4</v>
-      </c>
-      <c r="N20">
+      <c r="P20">
         <v>648474.14</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>2</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>286</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
       <c r="C21">
         <v>0</v>
       </c>
@@ -2442,17 +2500,17 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>1876</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1876</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
@@ -2460,22 +2518,22 @@
         <v>0</v>
       </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>1876</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1876</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2484,120 +2542,126 @@
         <v>1876</v>
       </c>
       <c r="T21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1876</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>120</v>
       </c>
       <c r="D22">
+        <v>59</v>
+      </c>
+      <c r="E22">
         <v>233747.99</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>258135.61</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>27</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-27</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
+        <v>-22.5</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>4340.2</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>-4340.2</v>
       </c>
-      <c r="L22">
+      <c r="N22">
+        <v>-1.68</v>
+      </c>
+      <c r="O22">
         <v>93</v>
       </c>
-      <c r="M22">
-        <v>203798.49</v>
-      </c>
-      <c r="N22">
+      <c r="P22">
         <v>253795.41</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>60</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>59</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
+      <c r="T22">
         <v>70</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>41</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>8506168.7899999991</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>8864631.5899999999</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-1</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
-        <v>0</v>
+        <v>-2.44</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>40</v>
       </c>
-      <c r="M23">
-        <v>8506168.7899999991</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
         <v>8864631.5899999999</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
       <c r="Q23">
         <v>0</v>
       </c>
@@ -2605,61 +2669,64 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>19</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>980</v>
       </c>
       <c r="D24">
+        <v>114</v>
+      </c>
+      <c r="E24">
         <v>1909418.67</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1854954.57</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>349</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>979</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-630</v>
       </c>
-      <c r="I24">
+      <c r="J24">
+        <v>-64.290000000000006</v>
+      </c>
+      <c r="K24">
         <v>1876681.09</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>1852149.57</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>24531.52</v>
       </c>
-      <c r="L24">
+      <c r="N24">
+        <v>1.32</v>
+      </c>
+      <c r="O24">
         <v>350</v>
       </c>
-      <c r="M24">
-        <v>1213254.33</v>
-      </c>
-      <c r="N24">
+      <c r="P24">
         <v>1879486.09</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
       <c r="Q24">
         <v>0</v>
       </c>
@@ -2667,18 +2734,21 @@
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>68</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2690,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>38</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>38</v>
-      </c>
-      <c r="I25">
-        <v>74540.850000000006</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2708,20 +2778,20 @@
         <v>74540.850000000006</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>74540.850000000006</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>38</v>
       </c>
-      <c r="M25">
-        <v>58384.3</v>
-      </c>
-      <c r="N25">
+      <c r="P25">
         <v>74540.850000000006</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
       <c r="Q25">
         <v>0</v>
       </c>
@@ -2729,123 +2799,129 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>22</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>595</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>55101.1</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>7</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-7</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
-        <v>0</v>
+        <v>-1.18</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>588</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="P26">
         <v>55101.1</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>392</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>427</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
+      <c r="T26">
         <v>528</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>86</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>308444.59999999998</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>166600.23000000001</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
-        <v>0</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>85</v>
       </c>
-      <c r="M27">
-        <v>308444.59999999998</v>
-      </c>
-      <c r="N27">
+      <c r="P27">
         <v>166600.23000000001</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
       <c r="Q27">
         <v>0</v>
       </c>
@@ -2853,24 +2929,27 @@
         <v>0</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>60</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>37</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2879,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>37</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-37</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2920,118 +2999,124 @@
       <c r="T28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>272</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>1286220.32</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1358835.12</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>150</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-150</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
+        <v>-55.15</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>29874</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>-29874</v>
       </c>
-      <c r="L29">
+      <c r="N29">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="O29">
         <v>122</v>
       </c>
-      <c r="M29">
-        <v>1126198.29</v>
-      </c>
-      <c r="N29">
+      <c r="P29">
         <v>1328961.1200000001</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>1</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>16</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>218</v>
       </c>
       <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
         <v>2997019.25</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2884935.27</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>44</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-44</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
+        <v>-20.18</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>24553.18</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>-24553.18</v>
       </c>
-      <c r="L30">
+      <c r="N30">
+        <v>-0.85</v>
+      </c>
+      <c r="O30">
         <v>174</v>
       </c>
-      <c r="M30">
-        <v>2847032.16</v>
-      </c>
-      <c r="N30">
+      <c r="P30">
         <v>2860382.09</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
       <c r="Q30">
         <v>0</v>
       </c>
@@ -3039,61 +3124,64 @@
         <v>0</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <v>18</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>80655.5</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>125930.53</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-1</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
-        <v>0</v>
+        <v>-33.33</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>2</v>
       </c>
-      <c r="M31">
-        <v>80655.5</v>
-      </c>
-      <c r="N31">
+      <c r="P31">
         <v>125930.53</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
       <c r="Q31">
         <v>0</v>
       </c>
@@ -3106,173 +3194,182 @@
       <c r="T31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>938</v>
       </c>
       <c r="D32">
+        <v>78</v>
+      </c>
+      <c r="E32">
         <v>2556804.9</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2154258.2200000002</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>160</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>728</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-568</v>
       </c>
-      <c r="I32">
+      <c r="J32">
+        <v>-60.55</v>
+      </c>
+      <c r="K32">
         <v>913943.32</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>1018916.4</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>-104973.08</v>
       </c>
-      <c r="L32">
+      <c r="N32">
+        <v>-4.87</v>
+      </c>
+      <c r="O32">
         <v>370</v>
       </c>
-      <c r="M32">
-        <v>1541333.63</v>
-      </c>
-      <c r="N32">
+      <c r="P32">
         <v>2049285.14</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>4</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>5724.56</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <v>66</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>1006</v>
       </c>
       <c r="D33">
+        <v>111</v>
+      </c>
+      <c r="E33">
         <v>2180626.56</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2169759.1800000002</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>304</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>838</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-534</v>
       </c>
-      <c r="I33">
+      <c r="J33">
+        <v>-53.08</v>
+      </c>
+      <c r="K33">
         <v>1682569.19</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>1133139.3600000001</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>549429.82999999996</v>
       </c>
-      <c r="L33">
+      <c r="N33">
+        <v>25.32</v>
+      </c>
+      <c r="O33">
         <v>472</v>
       </c>
-      <c r="M33">
-        <v>1719775.93</v>
-      </c>
-      <c r="N33">
+      <c r="P33">
         <v>2719189.01</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>2</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>2407</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>89</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>1725</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1310</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>1</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-1</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
+        <v>-100</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>1310</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>-1310</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -3292,118 +3389,124 @@
       <c r="T34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>192</v>
       </c>
       <c r="D35">
+        <v>92</v>
+      </c>
+      <c r="E35">
         <v>199987.48</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>234117.19</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>45</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-45</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
+        <v>-23.44</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>2800</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>-2800</v>
       </c>
-      <c r="L35">
+      <c r="N35">
+        <v>-1.2</v>
+      </c>
+      <c r="O35">
         <v>147</v>
       </c>
-      <c r="M35">
-        <v>177764.48000000001</v>
-      </c>
-      <c r="N35">
+      <c r="P35">
         <v>231317.19</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>91</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>993</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>92</v>
       </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
+      <c r="T35">
         <v>108</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>224</v>
       </c>
       <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
         <v>1678063.5</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1623756.33</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>79</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-79</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
+        <v>-35.270000000000003</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>32013.52</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>-32013.52</v>
       </c>
-      <c r="L36">
+      <c r="N36">
+        <v>-1.97</v>
+      </c>
+      <c r="O36">
         <v>145</v>
       </c>
-      <c r="M36">
-        <v>1542970.44</v>
-      </c>
-      <c r="N36">
+      <c r="P36">
         <v>1591742.81</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
       <c r="Q36">
         <v>0</v>
       </c>
@@ -3411,185 +3514,194 @@
         <v>0</v>
       </c>
       <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <v>22</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>364</v>
       </c>
       <c r="D37">
+        <v>43</v>
+      </c>
+      <c r="E37">
         <v>3362816.28</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>3089300.76</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>159</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-159</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
+        <v>-43.68</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>47985.22</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>-47985.22</v>
       </c>
-      <c r="L37">
+      <c r="N37">
+        <v>-1.55</v>
+      </c>
+      <c r="O37">
         <v>205</v>
       </c>
-      <c r="M37">
-        <v>3074557.46</v>
-      </c>
-      <c r="N37">
+      <c r="P37">
         <v>3041315.54</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>2</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>-2015</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
       <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <v>19</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>432</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>55119.6</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>3</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-2</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>430</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="P38">
         <v>55119.6</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>275</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>291</v>
       </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
         <v>378</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>329</v>
       </c>
       <c r="D39">
+        <v>61</v>
+      </c>
+      <c r="E39">
         <v>737046.94</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>856235.45</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>209</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>-209</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
+        <v>-63.53</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>46446.8</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>-46446.8</v>
       </c>
-      <c r="L39">
+      <c r="N39">
+        <v>-5.42</v>
+      </c>
+      <c r="O39">
         <v>120</v>
       </c>
-      <c r="M39">
-        <v>577125.12</v>
-      </c>
-      <c r="N39">
+      <c r="P39">
         <v>809788.65</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
       <c r="Q39">
         <v>0</v>
       </c>
@@ -3597,61 +3709,64 @@
         <v>0</v>
       </c>
       <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <v>36</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>132</v>
       </c>
       <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
         <v>602852.37</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>541001.96</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>72</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>-72</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
+        <v>-54.55</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>26481.39</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>-26481.39</v>
       </c>
-      <c r="L40">
+      <c r="N40">
+        <v>-4.8899999999999997</v>
+      </c>
+      <c r="O40">
         <v>60</v>
       </c>
-      <c r="M40">
-        <v>513810.52</v>
-      </c>
-      <c r="N40">
+      <c r="P40">
         <v>514520.57</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
       <c r="Q40">
         <v>0</v>
       </c>
@@ -3659,61 +3774,64 @@
         <v>0</v>
       </c>
       <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <v>10</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>2490</v>
       </c>
       <c r="D41">
+        <v>1087</v>
+      </c>
+      <c r="E41">
         <v>179461.27</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1555673.72</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>273</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>2421</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>-2148</v>
       </c>
-      <c r="I41">
+      <c r="J41">
+        <v>-86.27</v>
+      </c>
+      <c r="K41">
         <v>1736978.6</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>1376923.38</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>360055.22</v>
       </c>
-      <c r="L41">
+      <c r="N41">
+        <v>23.14</v>
+      </c>
+      <c r="O41">
         <v>342</v>
       </c>
-      <c r="M41">
-        <v>1300197.29</v>
-      </c>
-      <c r="N41">
+      <c r="P41">
         <v>1915728.94</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
       <c r="Q41">
         <v>0</v>
       </c>
@@ -3721,142 +3839,151 @@
         <v>0</v>
       </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <v>70</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42">
         <v>165</v>
       </c>
       <c r="D42">
+        <v>77</v>
+      </c>
+      <c r="E42">
         <v>118676.8</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>326398.21999999997</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>54</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>-54</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
+        <v>-32.729999999999997</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>12150.78</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>-12150.78</v>
       </c>
-      <c r="L42">
+      <c r="N42">
+        <v>-3.72</v>
+      </c>
+      <c r="O42">
         <v>111</v>
       </c>
-      <c r="M42">
-        <v>77456.5</v>
-      </c>
-      <c r="N42">
+      <c r="P42">
         <v>314247.44</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>74</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
         <v>77</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
+      <c r="T42">
         <v>88</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>240</v>
       </c>
       <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
         <v>750560.15</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>820619.48</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>139</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>-139</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
+        <v>-57.92</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>13496.75</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>-13496.75</v>
       </c>
-      <c r="L43">
+      <c r="N43">
+        <v>-1.64</v>
+      </c>
+      <c r="O43">
         <v>101</v>
       </c>
-      <c r="M43">
-        <v>598834.36</v>
-      </c>
-      <c r="N43">
+      <c r="P43">
         <v>807122.73</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>1</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <v>25</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3886,17 +4013,17 @@
         <v>0</v>
       </c>
       <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>1</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
       <c r="P44">
         <v>0</v>
       </c>
@@ -3907,18 +4034,21 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3948,17 +4078,17 @@
         <v>0</v>
       </c>
       <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>1</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
       <c r="P45">
         <v>0</v>
       </c>
@@ -3969,142 +4099,151 @@
         <v>0</v>
       </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <v>1</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>184</v>
       </c>
       <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
         <v>1910383.7</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1805917.18</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>64</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>-64</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46">
+        <v>-34.78</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>23977.35</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>-23977.35</v>
       </c>
-      <c r="L46">
+      <c r="N46">
+        <v>-1.33</v>
+      </c>
+      <c r="O46">
         <v>120</v>
       </c>
-      <c r="M46">
-        <v>1835515.16</v>
-      </c>
-      <c r="N46">
+      <c r="P46">
         <v>1781939.83</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>1</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>1673</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
       <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>25</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47">
         <v>239</v>
       </c>
       <c r="D47">
+        <v>23</v>
+      </c>
+      <c r="E47">
         <v>1684730.14</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1584817.02</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>90</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>-90</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
+        <v>-37.659999999999997</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
         <v>29777.81</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>-29777.81</v>
       </c>
-      <c r="L47">
+      <c r="N47">
+        <v>-1.88</v>
+      </c>
+      <c r="O47">
         <v>149</v>
       </c>
-      <c r="M47">
-        <v>1461828.67</v>
-      </c>
-      <c r="N47">
+      <c r="P47">
         <v>1555039.21</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>1</v>
       </c>
-      <c r="P47">
+      <c r="R47">
         <v>42</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
       <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <v>23</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4134,17 +4273,17 @@
         <v>0</v>
       </c>
       <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
         <v>1</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
       <c r="P48">
         <v>0</v>
       </c>
@@ -4155,61 +4294,64 @@
         <v>0</v>
       </c>
       <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
         <v>1</v>
       </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>5241</v>
       </c>
       <c r="D49">
+        <v>3826</v>
+      </c>
+      <c r="E49">
         <v>426488.14</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>996346.2</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>4917</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>-4917</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
+        <v>-93.82</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>683342.38</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>-683342.38</v>
       </c>
-      <c r="L49">
+      <c r="N49">
+        <v>-68.58</v>
+      </c>
+      <c r="O49">
         <v>324</v>
       </c>
-      <c r="M49">
-        <v>284847.34000000003</v>
-      </c>
-      <c r="N49">
+      <c r="P49">
         <v>313003.82</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
@@ -4217,31 +4359,34 @@
         <v>0</v>
       </c>
       <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>285</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>30</v>
       </c>
       <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>6248721.3899999997</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>3909234.27</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
       <c r="G50">
         <v>0</v>
       </c>
@@ -4258,20 +4403,20 @@
         <v>0</v>
       </c>
       <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
         <v>30</v>
       </c>
-      <c r="M50">
-        <v>6248721.3899999997</v>
-      </c>
-      <c r="N50">
+      <c r="P50">
         <v>3909234.27</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
       <c r="Q50">
         <v>0</v>
       </c>
@@ -4279,61 +4424,64 @@
         <v>0</v>
       </c>
       <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <v>14</v>
       </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>161</v>
       </c>
       <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
         <v>1735276.45</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>1512559.56</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>31</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>-31</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51">
+        <v>-19.25</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>12547.45</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>-12547.45</v>
       </c>
-      <c r="L51">
+      <c r="N51">
+        <v>-0.83</v>
+      </c>
+      <c r="O51">
         <v>130</v>
       </c>
-      <c r="M51">
-        <v>1698057.42</v>
-      </c>
-      <c r="N51">
+      <c r="P51">
         <v>1500012.11</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
       <c r="Q51">
         <v>0</v>
       </c>
@@ -4341,61 +4489,64 @@
         <v>0</v>
       </c>
       <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
         <v>16</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>516</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>8564</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>-1</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
-        <v>0</v>
+        <v>-33.33</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
         <v>2</v>
       </c>
-      <c r="M52">
-        <v>516</v>
-      </c>
-      <c r="N52">
+      <c r="P52">
         <v>8564</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
       <c r="Q52">
         <v>0</v>
       </c>
@@ -4403,61 +4554,64 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>193</v>
       </c>
       <c r="D53">
+        <v>13</v>
+      </c>
+      <c r="E53">
         <v>1241834.71</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>1134956.3999999999</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>79</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>-79</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53">
+        <v>-40.93</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>36169.379999999997</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>-36169.379999999997</v>
       </c>
-      <c r="L53">
+      <c r="N53">
+        <v>-3.19</v>
+      </c>
+      <c r="O53">
         <v>114</v>
       </c>
-      <c r="M53">
-        <v>1135039.48</v>
-      </c>
-      <c r="N53">
+      <c r="P53">
         <v>1098787.02</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
       <c r="Q53">
         <v>0</v>
       </c>
@@ -4465,24 +4619,27 @@
         <v>0</v>
       </c>
       <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
         <v>16</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4506,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -4530,15 +4687,18 @@
         <v>3</v>
       </c>
       <c r="T54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4550,16 +4710,16 @@
         <v>0</v>
       </c>
       <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>9083</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>9083</v>
-      </c>
-      <c r="I55">
-        <v>1807893.5</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4568,20 +4728,20 @@
         <v>1807893.5</v>
       </c>
       <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1807893.5</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>9083</v>
       </c>
-      <c r="M55">
-        <v>6255967.0599999996</v>
-      </c>
-      <c r="N55">
+      <c r="P55">
         <v>1807893.5</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
       <c r="Q55">
         <v>0</v>
       </c>
@@ -4589,18 +4749,21 @@
         <v>0</v>
       </c>
       <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
         <v>7138</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -4612,17 +4775,17 @@
         <v>0</v>
       </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>405</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>405</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56">
         <v>0</v>
       </c>
@@ -4630,22 +4793,22 @@
         <v>0</v>
       </c>
       <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
         <v>405</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -4654,15 +4817,18 @@
         <v>405</v>
       </c>
       <c r="T56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -4674,17 +4840,17 @@
         <v>0</v>
       </c>
       <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>5669</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>5669</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
         <v>0</v>
       </c>
@@ -4692,22 +4858,22 @@
         <v>0</v>
       </c>
       <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
         <v>5669</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>5669</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -4716,83 +4882,89 @@
         <v>5669</v>
       </c>
       <c r="T57">
+        <v>5669</v>
+      </c>
+      <c r="U57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>200</v>
       </c>
       <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58">
         <v>1262360.52</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1090121.99</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
       <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>82</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>-82</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58">
+        <v>-41</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>26435.439999999999</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>-26435.439999999999</v>
       </c>
-      <c r="L58">
+      <c r="N58">
+        <v>-2.42</v>
+      </c>
+      <c r="O58">
         <v>118</v>
       </c>
-      <c r="M58">
-        <v>1134371.3799999999</v>
-      </c>
-      <c r="N58">
+      <c r="P58">
         <v>1063686.55</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>1</v>
       </c>
-      <c r="P58">
+      <c r="R58">
         <v>1917</v>
       </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
       <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
         <v>21</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>452</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4801,37 +4973,37 @@
         <v>0</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>2</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>-2</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
-        <v>0</v>
+        <v>-0.44</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
         <v>450</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>339</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>450</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -4840,145 +5012,154 @@
         <v>450</v>
       </c>
       <c r="T59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>475</v>
       </c>
       <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>2237042.31</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>2118559.2799999998</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>205</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>-205</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60">
+        <v>-43.16</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>15963.42</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>-15963.42</v>
       </c>
-      <c r="L60">
+      <c r="N60">
+        <v>-0.75</v>
+      </c>
+      <c r="O60">
         <v>270</v>
       </c>
-      <c r="M60">
-        <v>2102702.0499999998</v>
-      </c>
-      <c r="N60">
+      <c r="P60">
         <v>2102595.86</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>12</v>
       </c>
-      <c r="P60">
+      <c r="R60">
         <v>5858.5</v>
       </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
       <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
         <v>89</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>160</v>
       </c>
       <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>142579.72</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>212981.42</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
       <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>80</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>-80</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61">
+        <v>-50</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>9039.6200000000008</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>-9039.6200000000008</v>
       </c>
-      <c r="L61">
+      <c r="N61">
+        <v>-4.24</v>
+      </c>
+      <c r="O61">
         <v>80</v>
       </c>
-      <c r="M61">
-        <v>89487.42</v>
-      </c>
-      <c r="N61">
+      <c r="P61">
         <v>203941.8</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>5</v>
       </c>
-      <c r="P61">
+      <c r="R61">
         <v>4973.6000000000004</v>
       </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
       <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
         <v>33</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62">
         <v>153</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5002,22 +5183,22 @@
         <v>0</v>
       </c>
       <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
         <v>153</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>147</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>153</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -5026,120 +5207,126 @@
         <v>153</v>
       </c>
       <c r="T62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>164</v>
       </c>
       <c r="D63">
+        <v>41</v>
+      </c>
+      <c r="E63">
         <v>838775.52</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>833953.04</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
       <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
         <v>98</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>-98</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63">
+        <v>-59.76</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>16680.599999999999</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>-16680.599999999999</v>
       </c>
-      <c r="L63">
+      <c r="N63">
+        <v>-2</v>
+      </c>
+      <c r="O63">
         <v>66</v>
       </c>
-      <c r="M63">
-        <v>702751.42</v>
-      </c>
-      <c r="N63">
+      <c r="P63">
         <v>817272.44</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>1</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
         <v>8</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>163</v>
       </c>
       <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
         <v>1418968.01</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>1585036.97</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>68</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>-68</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64">
+        <v>-41.72</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
         <v>18851.5</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>-18851.5</v>
       </c>
-      <c r="L64">
+      <c r="N64">
+        <v>-1.19</v>
+      </c>
+      <c r="O64">
         <v>95</v>
       </c>
-      <c r="M64">
-        <v>1334874.3600000001</v>
-      </c>
-      <c r="N64">
+      <c r="P64">
         <v>1566185.47</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
       <c r="Q64">
         <v>0</v>
       </c>
@@ -5147,123 +5334,129 @@
         <v>0</v>
       </c>
       <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
         <v>22</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>278</v>
       </c>
       <c r="D65">
+        <v>48</v>
+      </c>
+      <c r="E65">
         <v>1747291.31</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>1711828.84</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>129</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>-129</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65">
+        <v>-46.4</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>35450.22</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>-35450.22</v>
       </c>
-      <c r="L65">
+      <c r="N65">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="O65">
         <v>149</v>
       </c>
-      <c r="M65">
-        <v>1622456.38</v>
-      </c>
-      <c r="N65">
+      <c r="P65">
         <v>1676378.62</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <v>5</v>
       </c>
-      <c r="P65">
+      <c r="R65">
         <v>3088</v>
       </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
       <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
         <v>31</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C66">
         <v>310</v>
       </c>
       <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
         <v>23678.92</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>-304071.99</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>193</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>-193</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66">
-        <v>0</v>
+        <v>-62.26</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
         <v>117</v>
       </c>
-      <c r="M66">
-        <v>21547.919999999998</v>
-      </c>
-      <c r="N66">
+      <c r="P66">
         <v>-304071.99</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
       <c r="Q66">
         <v>0</v>
       </c>
@@ -5271,61 +5464,64 @@
         <v>0</v>
       </c>
       <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
         <v>115</v>
       </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C67">
         <v>9</v>
       </c>
       <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>12.33</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>-18.43</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>6</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>-6</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67">
+        <v>-66.67</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
         <v>-20.48</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>20.48</v>
       </c>
-      <c r="L67">
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
         <v>3</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>2.0499999999999998</v>
       </c>
-      <c r="N67">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
       <c r="Q67">
         <v>0</v>
       </c>
@@ -5333,18 +5529,21 @@
         <v>0</v>
       </c>
       <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
         <v>2</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -5359,32 +5558,32 @@
         <v>0</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>1</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>-1</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
       <c r="J68">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
         <v>4</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
         <v>0</v>
       </c>
@@ -5395,123 +5594,129 @@
         <v>0</v>
       </c>
       <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
         <v>4</v>
       </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C69">
         <v>196</v>
       </c>
       <c r="D69">
+        <v>105</v>
+      </c>
+      <c r="E69">
         <v>118591.03999999999</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>108830.14</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
       <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>52</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>-52</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
       <c r="J69">
+        <v>-26.53</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
         <v>6288.25</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>-6288.25</v>
       </c>
-      <c r="L69">
+      <c r="N69">
+        <v>-5.78</v>
+      </c>
+      <c r="O69">
         <v>144</v>
       </c>
-      <c r="M69">
-        <v>86989.24</v>
-      </c>
-      <c r="N69">
+      <c r="P69">
         <v>102541.89</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>99</v>
       </c>
-      <c r="P69">
+      <c r="R69">
         <v>2780.5</v>
       </c>
-      <c r="Q69">
+      <c r="S69">
         <v>105</v>
       </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
+      <c r="T69">
         <v>121</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>702</v>
       </c>
       <c r="D70">
+        <v>63</v>
+      </c>
+      <c r="E70">
         <v>2312696.59</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>2035345.12</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>218</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>681</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>-463</v>
       </c>
-      <c r="I70">
+      <c r="J70">
+        <v>-65.95</v>
+      </c>
+      <c r="K70">
         <v>1497520.35</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>1677862.23</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>-180341.88</v>
       </c>
-      <c r="L70">
+      <c r="N70">
+        <v>-8.86</v>
+      </c>
+      <c r="O70">
         <v>239</v>
       </c>
-      <c r="M70">
-        <v>1680839.22</v>
-      </c>
-      <c r="N70">
+      <c r="P70">
         <v>1855003.24</v>
       </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
       <c r="Q70">
         <v>0</v>
       </c>
@@ -5519,18 +5724,21 @@
         <v>0</v>
       </c>
       <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
         <v>45</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -5545,16 +5753,16 @@
         <v>0</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>2</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>-2</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
       <c r="J71">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -5586,73 +5794,73 @@
       <c r="T71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72">
         <v>723</v>
       </c>
       <c r="D72">
+        <v>49</v>
+      </c>
+      <c r="E72">
         <v>2390069.19</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>2198108.2999999998</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>216</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>661</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>-445</v>
       </c>
-      <c r="I72">
+      <c r="J72">
+        <v>-61.55</v>
+      </c>
+      <c r="K72">
         <v>1059648.75</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>1718372.68</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>-658723.93000000005</v>
       </c>
-      <c r="L72">
+      <c r="N72">
+        <v>-29.97</v>
+      </c>
+      <c r="O72">
         <v>278</v>
       </c>
-      <c r="M72">
-        <v>1065284.1000000001</v>
-      </c>
-      <c r="N72">
+      <c r="P72">
         <v>1539384.37</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>1</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
       <c r="R72">
         <v>0</v>
       </c>
       <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
         <v>45</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C74">
-        <f>SUM(C2:C73)</f>
-        <v>27321</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Rep_Level_Impacts_2025_Summary_V2.xlsx
+++ b/reports/Rep_Level_Impacts_2025_Summary_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AccountLists\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F6FA2E-B964-4B4F-A824-B1D6E395D81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C7178C-68FF-4330-8A8F-E9BA9D374D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22428" yWindow="1164" windowWidth="21348" windowHeight="9900" xr2:uid="{45189BC8-F0C2-46BC-834E-6004E7071DD7}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{F8D76AE1-A9B9-410E-8764-C2E50F2E5BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Rep_Level_Impacts_2025_Summary_" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FEB264-AB09-479E-BD25-1400D35766AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07134717-6C13-4F44-BDA9-A28851B19685}">
   <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
